--- a/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">inst_id</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">orphaCoding_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orphaCase_no</t>
   </si>
   <si>
     <t xml:space="preserve">unique_rdCase_no</t>
@@ -395,10 +398,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -407,18 +413,21 @@
         <v>124</v>
       </c>
       <c r="D2" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2" t="n">
         <v>112</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>124</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>962</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>10000</v>
       </c>
     </row>

--- a/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
@@ -20,25 +20,25 @@
     <t xml:space="preserve">report_year</t>
   </si>
   <si>
-    <t xml:space="preserve">orphaCoding_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orphaCase_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique_rdCase_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdCase_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inpatientCases_no</t>
+    <t xml:space="preserve">orphaCoding_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orphaCase_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unambigous_rdCase_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdCase_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_no_py_ipat</t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo</t>
@@ -410,22 +410,22 @@
         <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H2" t="n">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="I2" t="n">
         <v>10000</v>

--- a/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
+++ b/Local/Data/Export/KeyNum-Report_fhirTestData_2020.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">orphaCase_no_py</t>
   </si>
   <si>
-    <t xml:space="preserve">unambigous_rdCase_no_py</t>
+    <t xml:space="preserve">unambiguous_rdCase_no_py</t>
   </si>
   <si>
     <t xml:space="preserve">rdCase_no_py</t>
@@ -416,10 +416,10 @@
         <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>997</v>
